--- a/02_output/12_statistical_tests/soil_mixed_model_tests.xlsx
+++ b/02_output/12_statistical_tests/soil_mixed_model_tests.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f304f79f068e311c/Universitaet/MASTER/MasterThesis/11_Data_Analysis_MA/02_output/12_statistical_tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="11_F10AD0270009E284040535FA5F3D01C47A1E1152" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0FFB4D78-8915-46E9-A7A2-43D9F82385B7}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="11_F10AD0270009E284040535FA5F3D01C47A1E1152" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{83B6E832-A00B-4CA3-A55C-DC2B6E8972F2}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="3395" yWindow="4360" windowWidth="5760" windowHeight="2430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -585,10 +585,10 @@
     </row>
     <row r="2" spans="1:20" hidden="1" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
         <v>22</v>
@@ -600,57 +600,57 @@
         <v>6</v>
       </c>
       <c r="F2">
-        <v>9.6878355955725599</v>
+        <v>0.57430776418477603</v>
       </c>
       <c r="G2">
-        <v>8.4136167721258293</v>
+        <v>0.200641314868097</v>
       </c>
       <c r="H2">
         <v>25</v>
       </c>
       <c r="I2">
-        <v>1.15144721443318</v>
+        <v>2.86236044935377</v>
       </c>
       <c r="J2">
-        <v>0.260441833348111</v>
+        <v>8.3832666085816594E-3</v>
       </c>
       <c r="K2">
-        <v>294.91627161395297</v>
+        <v>72.573422075489304</v>
       </c>
       <c r="L2">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="M2">
-        <v>0.143605869663361</v>
+        <v>4.61181774689845E-2</v>
       </c>
       <c r="N2">
-        <v>0.97099627292610302</v>
+        <v>0.87508764450506105</v>
       </c>
       <c r="O2">
-        <v>0.52734726567804002</v>
+        <v>1.52463260399647E-3</v>
       </c>
       <c r="P2">
-        <v>82.309432218722506</v>
+        <v>2.5825925925925901</v>
       </c>
       <c r="Q2">
-        <v>72.188763223802894</v>
+        <v>2.0438095238095202</v>
       </c>
       <c r="R2">
-        <v>10.120668994919599</v>
+        <v>0.53878306878306903</v>
       </c>
       <c r="S2" t="s">
         <v>23</v>
       </c>
       <c r="T2">
-        <v>0.52088366669622199</v>
+        <v>0.104054719476239</v>
       </c>
     </row>
     <row r="3" spans="1:20" hidden="1" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
         <v>22</v>
@@ -662,57 +662,57 @@
         <v>6</v>
       </c>
       <c r="F3">
-        <v>18.4039392844685</v>
+        <v>-5.64313905413789E-6</v>
       </c>
       <c r="G3">
-        <v>36.542926759079499</v>
+        <v>2.18412027414648E-6</v>
       </c>
       <c r="H3">
         <v>25</v>
       </c>
       <c r="I3">
-        <v>0.50362521332246102</v>
+        <v>-2.5837125917175698</v>
       </c>
       <c r="J3">
-        <v>0.61893388639114599</v>
+        <v>1.6008418380959798E-2</v>
       </c>
       <c r="K3">
-        <v>385.115418834151</v>
+        <v>-614.59887214232401</v>
       </c>
       <c r="L3">
-        <v>84</v>
+        <v>159</v>
       </c>
       <c r="M3">
-        <v>0.114921064318405</v>
+        <v>0.21698949564336101</v>
       </c>
       <c r="N3">
-        <v>0.88560513758090398</v>
+        <v>0.69715410993331095</v>
       </c>
       <c r="O3">
-        <v>2.7168441085901802E-3</v>
+        <v>7.8840965001626198E-7</v>
       </c>
       <c r="P3">
-        <v>389.34470311911599</v>
+        <v>3.48235078178886E-6</v>
       </c>
       <c r="Q3">
-        <v>371.50969786886998</v>
+        <v>9.5982913510216795E-6</v>
       </c>
       <c r="R3">
-        <v>17.835005250245899</v>
+        <v>-6.1159405692328302E-6</v>
       </c>
       <c r="S3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="T3">
-        <v>0.61893388639114599</v>
+        <v>0.104054719476239</v>
       </c>
     </row>
     <row r="4" spans="1:20" hidden="1" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
         <v>22</v>
@@ -724,57 +724,57 @@
         <v>6</v>
       </c>
       <c r="F4">
-        <v>0.57430776418477603</v>
+        <v>-5.7967949954425499</v>
       </c>
       <c r="G4">
-        <v>0.200641314868097</v>
+        <v>2.4178243063588298</v>
       </c>
       <c r="H4">
         <v>25</v>
       </c>
       <c r="I4">
-        <v>2.86236044935377</v>
+        <v>-2.3975253206765701</v>
       </c>
       <c r="J4">
-        <v>8.3832666085816594E-3</v>
+        <v>2.4298600373948001E-2</v>
       </c>
       <c r="K4">
-        <v>72.573422075489304</v>
+        <v>224.95603345528301</v>
       </c>
       <c r="L4">
-        <v>73</v>
+        <v>156</v>
       </c>
       <c r="M4">
-        <v>4.61181774689845E-2</v>
+        <v>0.26245291208803201</v>
       </c>
       <c r="N4">
-        <v>0.87508764450506105</v>
+        <v>0.95010565442022399</v>
       </c>
       <c r="O4">
-        <v>1.52463260399647E-3</v>
+        <v>0.145122367725772</v>
       </c>
       <c r="P4">
-        <v>2.5825925925925901</v>
+        <v>30.315601851851799</v>
       </c>
       <c r="Q4">
-        <v>2.0438095238095202</v>
+        <v>35.521226190476199</v>
       </c>
       <c r="R4">
-        <v>0.53878306878306903</v>
+        <v>-5.2056243386243501</v>
       </c>
       <c r="S4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="T4">
-        <v>0.104054719476239</v>
+        <v>5.3047152640836898E-2</v>
       </c>
     </row>
     <row r="5" spans="1:20" hidden="1" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
         <v>22</v>
@@ -786,49 +786,49 @@
         <v>6</v>
       </c>
       <c r="F5">
-        <v>-5.64313905413789E-6</v>
+        <v>4.3632377429699103</v>
       </c>
       <c r="G5">
-        <v>2.18412027414648E-6</v>
+        <v>1.8506610116823099</v>
       </c>
       <c r="H5">
         <v>25</v>
       </c>
       <c r="I5">
-        <v>-2.5837125917175698</v>
+        <v>2.3576644860549498</v>
       </c>
       <c r="J5">
-        <v>1.6008418380959798E-2</v>
+        <v>2.6523576320418501E-2</v>
       </c>
       <c r="K5">
-        <v>-614.59887214232401</v>
+        <v>209.562769513918</v>
       </c>
       <c r="L5">
-        <v>159</v>
+        <v>101</v>
       </c>
       <c r="M5">
-        <v>0.21698949564336101</v>
+        <v>0.35202013188593301</v>
       </c>
       <c r="N5">
-        <v>0.69715410993331095</v>
+        <v>0.94221341636895095</v>
       </c>
       <c r="O5">
-        <v>7.8840965001626198E-7</v>
+        <v>8.6529324587464804E-2</v>
       </c>
       <c r="P5">
-        <v>3.48235078178886E-6</v>
+        <v>58.141398148148099</v>
       </c>
       <c r="Q5">
-        <v>9.5982913510216795E-6</v>
+        <v>54.346392857142902</v>
       </c>
       <c r="R5">
-        <v>-6.1159405692328302E-6</v>
+        <v>3.7950052910053</v>
       </c>
       <c r="S5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="T5">
-        <v>0.104054719476239</v>
+        <v>5.3047152640836898E-2</v>
       </c>
     </row>
     <row r="6" spans="1:20" hidden="1" x14ac:dyDescent="0.75">
@@ -957,10 +957,10 @@
     </row>
     <row r="8" spans="1:20" hidden="1" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
         <v>22</v>
@@ -972,49 +972,49 @@
         <v>6</v>
       </c>
       <c r="F8">
-        <v>0.33739044027166698</v>
+        <v>1.44032204928274</v>
       </c>
       <c r="G8">
-        <v>0.19105750562696799</v>
+        <v>0.81159848522586897</v>
       </c>
       <c r="H8">
         <v>25</v>
       </c>
       <c r="I8">
-        <v>1.76591042139118</v>
+        <v>1.77467316105438</v>
       </c>
       <c r="J8">
-        <v>8.9622375391840994E-2</v>
+        <v>8.81314181973155E-2</v>
       </c>
       <c r="K8">
-        <v>67.446027280474098</v>
+        <v>155.54165197389301</v>
       </c>
       <c r="L8">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="M8">
-        <v>0.370483362079711</v>
+        <v>0.13348987138426599</v>
       </c>
       <c r="N8">
-        <v>0.57675298248636997</v>
+        <v>0.87737091735753303</v>
       </c>
       <c r="O8">
-        <v>1.9409247004986299E-8</v>
+        <v>1.72544227435854E-3</v>
       </c>
       <c r="P8">
-        <v>99.800395470081199</v>
+        <v>11.543138888888899</v>
       </c>
       <c r="Q8">
-        <v>99.419038787461702</v>
+        <v>10.1323928571429</v>
       </c>
       <c r="R8">
-        <v>0.38135668261948302</v>
+        <v>1.4107460317460301</v>
       </c>
       <c r="S8" t="s">
         <v>23</v>
       </c>
       <c r="T8">
-        <v>0.20090373377440099</v>
+        <v>0.117508557596421</v>
       </c>
     </row>
     <row r="9" spans="1:20" hidden="1" x14ac:dyDescent="0.75">
@@ -1022,7 +1022,7 @@
         <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
         <v>22</v>
@@ -1034,43 +1034,43 @@
         <v>6</v>
       </c>
       <c r="F9">
-        <v>8.7145312838810204E-2</v>
+        <v>0.33739044027166698</v>
       </c>
       <c r="G9">
-        <v>4.9852346897040101E-2</v>
+        <v>0.19105750562696799</v>
       </c>
       <c r="H9">
         <v>25</v>
       </c>
       <c r="I9">
-        <v>1.7480684112784399</v>
+        <v>1.76591042139118</v>
       </c>
       <c r="J9">
-        <v>9.2724800203569893E-2</v>
+        <v>8.9622375391840994E-2</v>
       </c>
       <c r="K9">
-        <v>-10.4523336962669</v>
+        <v>67.446027280474098</v>
       </c>
       <c r="L9">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="M9">
-        <v>7.1172415105597506E-2</v>
+        <v>0.370483362079711</v>
       </c>
       <c r="N9">
-        <v>0.96454427789095099</v>
+        <v>0.57675298248636997</v>
       </c>
       <c r="O9">
-        <v>0.36377737550029299</v>
+        <v>1.9409247004986299E-8</v>
       </c>
       <c r="P9">
-        <v>0.59641088337930503</v>
+        <v>99.800395470081199</v>
       </c>
       <c r="Q9">
-        <v>0.46906953897060399</v>
+        <v>99.419038787461702</v>
       </c>
       <c r="R9">
-        <v>0.12734134440870101</v>
+        <v>0.38135668261948302</v>
       </c>
       <c r="S9" t="s">
         <v>23</v>
@@ -1084,7 +1084,7 @@
         <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
         <v>22</v>
@@ -1096,49 +1096,49 @@
         <v>6</v>
       </c>
       <c r="F10">
-        <v>1.3610930801313601</v>
+        <v>8.7145312838810204E-2</v>
       </c>
       <c r="G10">
-        <v>0.89217379995519697</v>
+        <v>4.9852346897040101E-2</v>
       </c>
       <c r="H10">
         <v>25</v>
       </c>
       <c r="I10">
-        <v>1.5255918523943499</v>
+        <v>1.7480684112784399</v>
       </c>
       <c r="J10">
-        <v>0.13966422145669799</v>
+        <v>9.2724800203569893E-2</v>
       </c>
       <c r="K10">
-        <v>164.56056451979799</v>
+        <v>-10.4523336962669</v>
       </c>
       <c r="L10">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="M10">
-        <v>0.246619597581727</v>
+        <v>7.1172415105597506E-2</v>
       </c>
       <c r="N10">
-        <v>0.90779264357419198</v>
+        <v>0.96454427789095099</v>
       </c>
       <c r="O10">
-        <v>9.8368043471435893E-3</v>
+        <v>0.36377737550029299</v>
       </c>
       <c r="P10">
-        <v>8.1024968715481496</v>
+        <v>0.59641088337930503</v>
       </c>
       <c r="Q10">
-        <v>6.6030458615955903</v>
+        <v>0.46906953897060399</v>
       </c>
       <c r="R10">
-        <v>1.49945100995256</v>
+        <v>0.12734134440870101</v>
       </c>
       <c r="S10" t="s">
         <v>23</v>
       </c>
       <c r="T10">
-        <v>0.25937641127672401</v>
+        <v>0.20090373377440099</v>
       </c>
     </row>
     <row r="11" spans="1:20" hidden="1" x14ac:dyDescent="0.75">
@@ -1146,7 +1146,7 @@
         <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s">
         <v>22</v>
@@ -1158,49 +1158,49 @@
         <v>6</v>
       </c>
       <c r="F11">
-        <v>-0.17431304276437701</v>
+        <v>1.3610930801313601</v>
       </c>
       <c r="G11">
-        <v>0.133238535831151</v>
+        <v>0.89217379995519697</v>
       </c>
       <c r="H11">
         <v>25</v>
       </c>
       <c r="I11">
-        <v>-1.3082779818691399</v>
+        <v>1.5255918523943499</v>
       </c>
       <c r="J11">
-        <v>0.20268043725780099</v>
+        <v>0.13966422145669799</v>
       </c>
       <c r="K11">
-        <v>46.447476752139202</v>
+        <v>164.56056451979799</v>
       </c>
       <c r="L11">
-        <v>146</v>
+        <v>95</v>
       </c>
       <c r="M11">
-        <v>0.45740227680217699</v>
+        <v>0.246619597581727</v>
       </c>
       <c r="N11">
-        <v>0.63703286819012195</v>
+        <v>0.90779264357419198</v>
       </c>
       <c r="O11">
-        <v>1.1263118746689999E-7</v>
+        <v>9.8368043471435893E-3</v>
       </c>
       <c r="P11">
-        <v>0.20314035573422401</v>
+        <v>8.1024968715481496</v>
       </c>
       <c r="Q11">
-        <v>0.41966316150274402</v>
+        <v>6.6030458615955903</v>
       </c>
       <c r="R11">
-        <v>-0.21652280576852001</v>
+        <v>1.49945100995256</v>
       </c>
       <c r="S11" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="T11">
-        <v>0.32935571054392698</v>
+        <v>0.25937641127672401</v>
       </c>
     </row>
     <row r="12" spans="1:20" hidden="1" x14ac:dyDescent="0.75">
@@ -1208,7 +1208,7 @@
         <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
         <v>22</v>
@@ -1220,57 +1220,57 @@
         <v>6</v>
       </c>
       <c r="F12">
-        <v>0.250266908765508</v>
+        <v>-0.17431304276437701</v>
       </c>
       <c r="G12">
-        <v>0.21077854893745901</v>
+        <v>0.133238535831151</v>
       </c>
       <c r="H12">
         <v>25</v>
       </c>
       <c r="I12">
-        <v>1.1873452494436001</v>
+        <v>-1.3082779818691399</v>
       </c>
       <c r="J12">
-        <v>0.24625107145963199</v>
+        <v>0.20268043725780099</v>
       </c>
       <c r="K12">
-        <v>75.560022529266206</v>
+        <v>46.447476752139202</v>
       </c>
       <c r="L12">
-        <v>93</v>
+        <v>146</v>
       </c>
       <c r="M12">
-        <v>0.21698949564336101</v>
+        <v>0.45740227680217699</v>
       </c>
       <c r="N12">
-        <v>0.90125502124185597</v>
+        <v>0.63703286819012195</v>
       </c>
       <c r="O12">
-        <v>6.6670050948830998E-3</v>
+        <v>1.1263118746689999E-7</v>
       </c>
       <c r="P12">
-        <v>5.88055555555556</v>
+        <v>0.20314035573422401</v>
       </c>
       <c r="Q12">
-        <v>5.6050000000000004</v>
+        <v>0.41966316150274402</v>
       </c>
       <c r="R12">
-        <v>0.275555555555555</v>
+        <v>-0.21652280576852001</v>
       </c>
       <c r="S12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="T12">
-        <v>0.35569599210835701</v>
+        <v>0.32935571054392698</v>
       </c>
     </row>
     <row r="13" spans="1:20" hidden="1" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
         <v>22</v>
@@ -1282,49 +1282,49 @@
         <v>6</v>
       </c>
       <c r="F13">
-        <v>1.2253203274211499</v>
+        <v>-3.9435105448358002E-2</v>
       </c>
       <c r="G13">
-        <v>1.47526995787573</v>
+        <v>3.0669329590979899E-2</v>
       </c>
       <c r="H13">
         <v>25</v>
       </c>
       <c r="I13">
-        <v>0.83057363222221003</v>
+        <v>-1.2858156984284499</v>
       </c>
       <c r="J13">
-        <v>0.41407653003870698</v>
+        <v>0.210290184403266</v>
       </c>
       <c r="K13">
-        <v>189.67625398866201</v>
+        <v>-42.441547435006299</v>
       </c>
       <c r="L13">
-        <v>102</v>
+        <v>153</v>
       </c>
       <c r="M13">
-        <v>0.37202257373824199</v>
+        <v>0.31410215223823401</v>
       </c>
       <c r="N13">
-        <v>0.97981266428426095</v>
+        <v>0.97071089573817704</v>
       </c>
       <c r="O13">
-        <v>0.79414157828391496</v>
+        <v>0.51925214919791796</v>
       </c>
       <c r="P13">
-        <v>16.165768674685701</v>
+        <v>1.1925540859689401</v>
       </c>
       <c r="Q13">
-        <v>14.5401235500805</v>
+        <v>1.22904375231973</v>
       </c>
       <c r="R13">
-        <v>1.62564512460514</v>
+        <v>-3.6489666350786099E-2</v>
       </c>
       <c r="S13" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="T13">
-        <v>0.53829948905031899</v>
+        <v>0.210290184403266</v>
       </c>
     </row>
     <row r="14" spans="1:20" hidden="1" x14ac:dyDescent="0.75">
@@ -1332,7 +1332,7 @@
         <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
         <v>22</v>
@@ -1344,57 +1344,57 @@
         <v>6</v>
       </c>
       <c r="F14">
-        <v>10.5441043394927</v>
+        <v>0.250266908765508</v>
       </c>
       <c r="G14">
-        <v>22.837339167332502</v>
+        <v>0.21077854893745901</v>
       </c>
       <c r="H14">
         <v>25</v>
       </c>
       <c r="I14">
-        <v>0.461704590987351</v>
+        <v>1.1873452494436001</v>
       </c>
       <c r="J14">
-        <v>0.64828563714586296</v>
+        <v>0.24625107145963199</v>
       </c>
       <c r="K14">
-        <v>359.44382705481098</v>
+        <v>75.560022529266206</v>
       </c>
       <c r="L14">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="M14">
-        <v>9.8447258425320899E-2</v>
+        <v>0.21698949564336101</v>
       </c>
       <c r="N14">
-        <v>0.76753096161865497</v>
+        <v>0.90125502124185597</v>
       </c>
       <c r="O14">
-        <v>1.05833060598021E-5</v>
+        <v>6.6670050948830998E-3</v>
       </c>
       <c r="P14">
-        <v>170.79004332519099</v>
+        <v>5.88055555555556</v>
       </c>
       <c r="Q14">
-        <v>165.84969667804</v>
+        <v>5.6050000000000004</v>
       </c>
       <c r="R14">
-        <v>4.9403466471510997</v>
+        <v>0.275555555555555</v>
       </c>
       <c r="S14" t="s">
         <v>23</v>
       </c>
       <c r="T14">
-        <v>0.76615575299056504</v>
+        <v>0.35569599210835701</v>
       </c>
     </row>
     <row r="15" spans="1:20" hidden="1" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1406,49 +1406,49 @@
         <v>6</v>
       </c>
       <c r="F15">
-        <v>8.1514414023172304</v>
+        <v>9.6878355955725599</v>
       </c>
       <c r="G15">
-        <v>21.886660775797701</v>
+        <v>8.4136167721258293</v>
       </c>
       <c r="H15">
         <v>25</v>
       </c>
       <c r="I15">
-        <v>0.37243878752537202</v>
+        <v>1.15144721443318</v>
       </c>
       <c r="J15">
-        <v>0.71270492623604798</v>
+        <v>0.260441833348111</v>
       </c>
       <c r="K15">
-        <v>356.837488862366</v>
+        <v>294.91627161395297</v>
       </c>
       <c r="L15">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="M15">
-        <v>8.3916163511180697E-2</v>
+        <v>0.143605869663361</v>
       </c>
       <c r="N15">
-        <v>0.74986223256343398</v>
+        <v>0.97099627292610302</v>
       </c>
       <c r="O15">
-        <v>5.3065115068217303E-6</v>
+        <v>0.52734726567804002</v>
       </c>
       <c r="P15">
-        <v>145.722226539844</v>
+        <v>82.309432218722506</v>
       </c>
       <c r="Q15">
-        <v>143.81779456589101</v>
+        <v>72.188763223802894</v>
       </c>
       <c r="R15">
-        <v>1.9044319739531701</v>
+        <v>10.120668994919599</v>
       </c>
       <c r="S15" t="s">
         <v>23</v>
       </c>
       <c r="T15">
-        <v>0.77209700342238496</v>
+        <v>0.52088366669622199</v>
       </c>
     </row>
     <row r="16" spans="1:20" hidden="1" x14ac:dyDescent="0.75">
@@ -1456,7 +1456,7 @@
         <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C16" t="s">
         <v>22</v>
@@ -1468,57 +1468,57 @@
         <v>6</v>
       </c>
       <c r="F16">
-        <v>-8.2622475980705101E-2</v>
+        <v>1.2253203274211499</v>
       </c>
       <c r="G16">
-        <v>0.477006661827233</v>
+        <v>1.47526995787573</v>
       </c>
       <c r="H16">
         <v>25</v>
       </c>
       <c r="I16">
-        <v>-0.17321031883330401</v>
+        <v>0.83057363222221003</v>
       </c>
       <c r="J16">
-        <v>0.86388090065871903</v>
+        <v>0.41407653003870698</v>
       </c>
       <c r="K16">
-        <v>120.23509463968099</v>
+        <v>189.67625398866201</v>
       </c>
       <c r="L16">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="M16">
-        <v>0.15429970067620699</v>
+        <v>0.37202257373824199</v>
       </c>
       <c r="N16">
-        <v>0.59607815014947596</v>
+        <v>0.97981266428426095</v>
       </c>
       <c r="O16">
-        <v>3.34835430874265E-8</v>
+        <v>0.79414157828391496</v>
       </c>
       <c r="P16">
-        <v>9.4351833333333293</v>
+        <v>16.165768674685701</v>
       </c>
       <c r="Q16">
-        <v>9.5832357142857099</v>
+        <v>14.5401235500805</v>
       </c>
       <c r="R16">
-        <v>-0.14805238095237899</v>
+        <v>1.62564512460514</v>
       </c>
       <c r="S16" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="T16">
-        <v>0.86388090065871903</v>
+        <v>0.53829948905031899</v>
       </c>
     </row>
     <row r="17" spans="1:20" hidden="1" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
         <v>22</v>
@@ -1530,57 +1530,57 @@
         <v>6</v>
       </c>
       <c r="F17">
-        <v>-5.7967949954425499</v>
+        <v>18.4039392844685</v>
       </c>
       <c r="G17">
-        <v>2.4178243063588298</v>
+        <v>36.542926759079499</v>
       </c>
       <c r="H17">
         <v>25</v>
       </c>
       <c r="I17">
-        <v>-2.3975253206765701</v>
+        <v>0.50362521332246102</v>
       </c>
       <c r="J17">
-        <v>2.4298600373948001E-2</v>
+        <v>0.61893388639114599</v>
       </c>
       <c r="K17">
-        <v>224.95603345528301</v>
+        <v>385.115418834151</v>
       </c>
       <c r="L17">
-        <v>156</v>
+        <v>84</v>
       </c>
       <c r="M17">
-        <v>0.26245291208803201</v>
+        <v>0.114921064318405</v>
       </c>
       <c r="N17">
-        <v>0.95010565442022399</v>
+        <v>0.88560513758090398</v>
       </c>
       <c r="O17">
-        <v>0.145122367725772</v>
+        <v>2.7168441085901802E-3</v>
       </c>
       <c r="P17">
-        <v>30.315601851851799</v>
+        <v>389.34470311911599</v>
       </c>
       <c r="Q17">
-        <v>35.521226190476199</v>
+        <v>371.50969786886998</v>
       </c>
       <c r="R17">
-        <v>-5.2056243386243501</v>
+        <v>17.835005250245899</v>
       </c>
       <c r="S17" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="T17">
-        <v>5.3047152640836898E-2</v>
+        <v>0.61893388639114599</v>
       </c>
     </row>
     <row r="18" spans="1:20" hidden="1" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s">
         <v>22</v>
@@ -1592,57 +1592,57 @@
         <v>6</v>
       </c>
       <c r="F18">
-        <v>4.3632377429699103</v>
+        <v>10.5441043394927</v>
       </c>
       <c r="G18">
-        <v>1.8506610116823099</v>
+        <v>22.837339167332502</v>
       </c>
       <c r="H18">
         <v>25</v>
       </c>
       <c r="I18">
-        <v>2.3576644860549498</v>
+        <v>0.461704590987351</v>
       </c>
       <c r="J18">
-        <v>2.6523576320418501E-2</v>
+        <v>0.64828563714586296</v>
       </c>
       <c r="K18">
-        <v>209.562769513918</v>
+        <v>359.44382705481098</v>
       </c>
       <c r="L18">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="M18">
-        <v>0.35202013188593301</v>
+        <v>9.8447258425320899E-2</v>
       </c>
       <c r="N18">
-        <v>0.94221341636895095</v>
+        <v>0.76753096161865497</v>
       </c>
       <c r="O18">
-        <v>8.6529324587464804E-2</v>
+        <v>1.05833060598021E-5</v>
       </c>
       <c r="P18">
-        <v>58.141398148148099</v>
+        <v>170.79004332519099</v>
       </c>
       <c r="Q18">
-        <v>54.346392857142902</v>
+        <v>165.84969667804</v>
       </c>
       <c r="R18">
-        <v>3.7950052910053</v>
+        <v>4.9403466471510997</v>
       </c>
       <c r="S18" t="s">
         <v>23</v>
       </c>
       <c r="T18">
-        <v>5.3047152640836898E-2</v>
+        <v>0.76615575299056504</v>
       </c>
     </row>
     <row r="19" spans="1:20" hidden="1" x14ac:dyDescent="0.75">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C19" t="s">
         <v>22</v>
@@ -1654,57 +1654,57 @@
         <v>6</v>
       </c>
       <c r="F19">
-        <v>1.44032204928274</v>
+        <v>8.1514414023172304</v>
       </c>
       <c r="G19">
-        <v>0.81159848522586897</v>
+        <v>21.886660775797701</v>
       </c>
       <c r="H19">
         <v>25</v>
       </c>
       <c r="I19">
-        <v>1.77467316105438</v>
+        <v>0.37243878752537202</v>
       </c>
       <c r="J19">
-        <v>8.81314181973155E-2</v>
+        <v>0.71270492623604798</v>
       </c>
       <c r="K19">
-        <v>155.54165197389301</v>
+        <v>356.837488862366</v>
       </c>
       <c r="L19">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="M19">
-        <v>0.13348987138426599</v>
+        <v>8.3916163511180697E-2</v>
       </c>
       <c r="N19">
-        <v>0.87737091735753303</v>
+        <v>0.74986223256343398</v>
       </c>
       <c r="O19">
-        <v>1.72544227435854E-3</v>
+        <v>5.3065115068217303E-6</v>
       </c>
       <c r="P19">
-        <v>11.543138888888899</v>
+        <v>145.722226539844</v>
       </c>
       <c r="Q19">
-        <v>10.1323928571429</v>
+        <v>143.81779456589101</v>
       </c>
       <c r="R19">
-        <v>1.4107460317460301</v>
+        <v>1.9044319739531701</v>
       </c>
       <c r="S19" t="s">
         <v>23</v>
       </c>
       <c r="T19">
-        <v>0.117508557596421</v>
+        <v>0.77209700342238496</v>
       </c>
     </row>
     <row r="20" spans="1:20" hidden="1" x14ac:dyDescent="0.75">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C20" t="s">
         <v>22</v>
@@ -1716,49 +1716,49 @@
         <v>6</v>
       </c>
       <c r="F20">
-        <v>-3.9435105448358002E-2</v>
+        <v>-8.2622475980705101E-2</v>
       </c>
       <c r="G20">
-        <v>3.0669329590979899E-2</v>
+        <v>0.477006661827233</v>
       </c>
       <c r="H20">
         <v>25</v>
       </c>
       <c r="I20">
-        <v>-1.2858156984284499</v>
+        <v>-0.17321031883330401</v>
       </c>
       <c r="J20">
-        <v>0.210290184403266</v>
+        <v>0.86388090065871903</v>
       </c>
       <c r="K20">
-        <v>-42.441547435006299</v>
+        <v>120.23509463968099</v>
       </c>
       <c r="L20">
-        <v>153</v>
+        <v>88</v>
       </c>
       <c r="M20">
-        <v>0.31410215223823401</v>
+        <v>0.15429970067620699</v>
       </c>
       <c r="N20">
-        <v>0.97071089573817704</v>
+        <v>0.59607815014947596</v>
       </c>
       <c r="O20">
-        <v>0.51925214919791796</v>
+        <v>3.34835430874265E-8</v>
       </c>
       <c r="P20">
-        <v>1.1925540859689401</v>
+        <v>9.4351833333333293</v>
       </c>
       <c r="Q20">
-        <v>1.22904375231973</v>
+        <v>9.5832357142857099</v>
       </c>
       <c r="R20">
-        <v>-3.6489666350786099E-2</v>
+        <v>-0.14805238095237899</v>
       </c>
       <c r="S20" t="s">
         <v>28</v>
       </c>
       <c r="T20">
-        <v>0.210290184403266</v>
+        <v>0.86388090065871903</v>
       </c>
     </row>
     <row r="21" spans="1:20" hidden="1" x14ac:dyDescent="0.75">
@@ -2939,7 +2939,7 @@
         <v>0.51545478751028995</v>
       </c>
     </row>
-    <row r="40" spans="1:20" hidden="1" x14ac:dyDescent="0.75">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.75">
       <c r="A40" t="s">
         <v>25</v>
       </c>
@@ -3001,7 +3001,7 @@
         <v>0.48629750397494897</v>
       </c>
     </row>
-    <row r="41" spans="1:20" hidden="1" x14ac:dyDescent="0.75">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.75">
       <c r="A41" t="s">
         <v>25</v>
       </c>
@@ -3063,7 +3063,7 @@
         <v>0.48629750397494897</v>
       </c>
     </row>
-    <row r="42" spans="1:20" hidden="1" x14ac:dyDescent="0.75">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.75">
       <c r="A42" t="s">
         <v>25</v>
       </c>
@@ -3311,7 +3311,7 @@
         <v>0.26789542019816298</v>
       </c>
     </row>
-    <row r="46" spans="1:20" hidden="1" x14ac:dyDescent="0.75">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.75">
       <c r="A46" t="s">
         <v>25</v>
       </c>
@@ -3435,7 +3435,7 @@
         <v>0.26789542019816298</v>
       </c>
     </row>
-    <row r="48" spans="1:20" hidden="1" x14ac:dyDescent="0.75">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.75">
       <c r="A48" t="s">
         <v>25</v>
       </c>
@@ -3497,7 +3497,7 @@
         <v>0.58044807672863696</v>
       </c>
     </row>
-    <row r="49" spans="1:20" hidden="1" x14ac:dyDescent="0.75">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.75">
       <c r="A49" t="s">
         <v>25</v>
       </c>
@@ -3559,7 +3559,7 @@
         <v>0.58044807672863696</v>
       </c>
     </row>
-    <row r="50" spans="1:20" hidden="1" x14ac:dyDescent="0.75">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.75">
       <c r="A50" t="s">
         <v>25</v>
       </c>
@@ -3621,7 +3621,7 @@
         <v>0.58044807672863696</v>
       </c>
     </row>
-    <row r="51" spans="1:20" hidden="1" x14ac:dyDescent="0.75">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.75">
       <c r="A51" t="s">
         <v>25</v>
       </c>
@@ -3683,7 +3683,7 @@
         <v>0.646172688899466</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.75">
+    <row r="52" spans="1:20" hidden="1" x14ac:dyDescent="0.75">
       <c r="A52" t="s">
         <v>20</v>
       </c>
@@ -3745,7 +3745,7 @@
         <v>0.74743250101650804</v>
       </c>
     </row>
-    <row r="53" spans="1:20" hidden="1" x14ac:dyDescent="0.75">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.75">
       <c r="A53" t="s">
         <v>25</v>
       </c>
@@ -3807,7 +3807,7 @@
         <v>0.66318022222422901</v>
       </c>
     </row>
-    <row r="54" spans="1:20" hidden="1" x14ac:dyDescent="0.75">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.75">
       <c r="A54" t="s">
         <v>25</v>
       </c>
@@ -3869,7 +3869,7 @@
         <v>0.66318022222422901</v>
       </c>
     </row>
-    <row r="55" spans="1:20" hidden="1" x14ac:dyDescent="0.75">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.75">
       <c r="A55" t="s">
         <v>25</v>
       </c>
@@ -3931,7 +3931,7 @@
         <v>0.86279159983876397</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.75">
+    <row r="56" spans="1:20" hidden="1" x14ac:dyDescent="0.75">
       <c r="A56" t="s">
         <v>20</v>
       </c>
@@ -3993,7 +3993,7 @@
         <v>0.74743250101650804</v>
       </c>
     </row>
-    <row r="57" spans="1:20" hidden="1" x14ac:dyDescent="0.75">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.75">
       <c r="A57" t="s">
         <v>25</v>
       </c>
@@ -4055,7 +4055,7 @@
         <v>0.86279159983876397</v>
       </c>
     </row>
-    <row r="58" spans="1:20" hidden="1" x14ac:dyDescent="0.75">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.75">
       <c r="A58" t="s">
         <v>25</v>
       </c>
@@ -4121,7 +4121,7 @@
   <autoFilter ref="A1:T58" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="0">
       <filters>
-        <filter val="biological"/>
+        <filter val="chemical"/>
       </filters>
     </filterColumn>
     <filterColumn colId="2">
@@ -4129,7 +4129,7 @@
         <filter val="field_in_loc_as_random"/>
       </filters>
     </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A40:T58">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T20">
       <sortCondition ref="J1:J58"/>
     </sortState>
   </autoFilter>
